--- a/data/接口自动化草稿.xlsx
+++ b/data/接口自动化草稿.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8820"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test1" sheetId="1" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" r:id="rId2"/>
-    <sheet name="test3" sheetId="3" r:id="rId3"/>
+    <sheet name="说明" sheetId="4" r:id="rId1"/>
+    <sheet name="test1" sheetId="1" r:id="rId2"/>
+    <sheet name="test2" sheetId="2" r:id="rId3"/>
+    <sheet name="test3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>编号/名称</t>
   </si>
@@ -33,7 +34,10 @@
     <t>请求体</t>
   </si>
   <si>
-    <t>添加请求参数</t>
+    <t>额外参数</t>
+  </si>
+  <si>
+    <t>断言方式</t>
   </si>
   <si>
     <t>断言内容</t>
@@ -42,7 +46,10 @@
     <t>数据提取</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>参数化文件</t>
+  </si>
+  <si>
+    <t>登录-sheet1</t>
   </si>
   <si>
     <t>post</t>
@@ -51,40 +58,52 @@
     <t>www.baidu.com？search=""</t>
   </si>
   <si>
-    <t>{token:"${token}"}</t>
+    <t>{"token":"${username}"}</t>
+  </si>
+  <si>
+    <t>{"timeout": 30}</t>
+  </si>
+  <si>
+    <t>jsonpath</t>
+  </si>
+  <si>
+    <t>[{"expr":"","expected":"","type":"eq"}]</t>
+  </si>
+  <si>
+    <t>{"type":"jsonpath","respon_headers":["命名变量名":"表达式"],"respon_body":["命名变量名":"表达式"]}</t>
+  </si>
+  <si>
+    <t>user.txt</t>
+  </si>
+  <si>
+    <t>搜索-sheet1</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>{"timeout": 30}</t>
-  </si>
-  <si>
-    <t>{"type":"jsonpath","content":[{"expr":"","expected":"","type":"eq"}]}</t>
-  </si>
-  <si>
-    <t>{"type":"jsonpath","content":["变量名":"表达式"]}</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>www.baidu.com</t>
-  </si>
-  <si>
     <t>{"uer":"ssss","passwork":"123456"}</t>
   </si>
   <si>
-    <t>{"type":"re","content":[{"expr":"","expected":"","type":"eq"}]}</t>
-  </si>
-  <si>
-    <t>{"type":"mysql","content":[{"config":None,"type":"single", "sql":"", "expect":{"":""}}]}</t>
-  </si>
-  <si>
-    <t>{"type":"mysql","content":[{"config":None,"type":"multiple", "sql":"", "expect":{"":[]}}]}</t>
+    <t>re</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>{"config":None,"type":"single", "sql":"", "expect":{"":""}}</t>
+  </si>
+  <si>
+    <t>{"config":None,"type":"multiple", "sql":"", "expect":{"":[]}}</t>
+  </si>
+  <si>
+    <t>搜索-sheet2</t>
   </si>
 </sst>
 </file>
@@ -1055,23 +1074,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
     <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="35.2222222222222" customWidth="1"/>
-    <col min="6" max="7" width="24.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="35.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="8.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="24.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="35.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,61 +1133,80 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="7:7">
+    <row r="4" spans="7:8">
       <c r="G4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="7:7">
+    <row r="5" spans="7:8">
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1164,24 +1220,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="www.baidu.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/data/接口自动化草稿.xlsx
+++ b/data/接口自动化草稿.xlsx
@@ -8,16 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
-    <sheet name="test1" sheetId="1" r:id="rId2"/>
-    <sheet name="test2" sheetId="2" r:id="rId3"/>
-    <sheet name="test3" sheetId="3" r:id="rId4"/>
+    <sheet name="设置" sheetId="5" r:id="rId2"/>
+    <sheet name="test1" sheetId="1" r:id="rId3"/>
+    <sheet name="test2" sheetId="2" r:id="rId4"/>
+    <sheet name="test3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+  <si>
+    <t>是否为sessinon方式</t>
+  </si>
+  <si>
+    <t>{"test1":"no","test2":"yes"}</t>
+  </si>
   <si>
     <t>编号/名称</t>
   </si>
@@ -1077,7 +1084,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1090,9 +1097,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1110,103 +1144,102 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2"/>
+        <v>15</v>
+      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="7:8">
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="7:8">
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J2"/>
@@ -1233,57 +1266,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
